--- a/medicine/Soins infirmiers et profession infirmière/Centre_hospitalier_de_Haute-Corrèze/Centre_hospitalier_de_Haute-Corrèze.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Centre_hospitalier_de_Haute-Corrèze/Centre_hospitalier_de_Haute-Corrèze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_de_Haute-Corr%C3%A8ze</t>
+          <t>Centre_hospitalier_de_Haute-Corrèze</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre hospitalier de Haute-Corrèze est un centre hospitalier public situé à Ussel, dans le département de la Corrèze.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_de_Haute-Corr%C3%A8ze</t>
+          <t>Centre_hospitalier_de_Haute-Corrèze</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Situation géographique
-Le centre hospitalier est un établissement public de santé, autonome, situé à Ussel en Corrèze. Il couvre une zone géographique comprenant la Haute-Corrèze, le nord-ouest du Cantal, le sud-ouest du Puy-de-Dôme et le sud-est de la Creuse[1]. C'est le seul hôpital qui dispose d'un service d'urgence et d'une maternité à plus de 30 km à la ronde. Le centre hospitalier de Haute-Corrèze gère aussi celui de Bort-les-Orgues et d'Eygurande[2].
-Nombre d'entrées
-8 863 entrées ont été enregistrées durant l’année 2017, en baisse d'environ 4 000 entrées par rapport à l'année précédente[3],[4].
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le centre hospitalier est un établissement public de santé, autonome, situé à Ussel en Corrèze. Il couvre une zone géographique comprenant la Haute-Corrèze, le nord-ouest du Cantal, le sud-ouest du Puy-de-Dôme et le sud-est de la Creuse. C'est le seul hôpital qui dispose d'un service d'urgence et d'une maternité à plus de 30 km à la ronde. Le centre hospitalier de Haute-Corrèze gère aussi celui de Bort-les-Orgues et d'Eygurande.
 </t>
         </is>
       </c>
@@ -528,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_de_Haute-Corr%C3%A8ze</t>
+          <t>Centre_hospitalier_de_Haute-Corrèze</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +558,55 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nombre d'entrées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8 863 entrées ont été enregistrées durant l’année 2017, en baisse d'environ 4 000 entrées par rapport à l'année précédente,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_Haute-Corrèze</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_Haute-Corr%C3%A8ze</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Activités médicales et enseignement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les différents services
-Le centre hospitalier de Haute-Corrèze dispense les spécialités médicales et chirurgicales suivantes[5] :
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les différents services</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le centre hospitalier de Haute-Corrèze dispense les spécialités médicales et chirurgicales suivantes :
 Anesthésie - Bloc opératoire
 Cardiologie
 Chirurgie orthopédique et de traumatologie
@@ -560,45 +617,158 @@
 Gériatrie (EHPAD, USLD-SMTI, Soins de suite et de réadaptation, Court séjour gériatrique)
 Urgences, SMUR, USCP et UHCD
 Unité ambulatoire médicale et chirurgicale
-Pharmacie et stérilisation
-Maternité
-Une fermeture de la maternité a souvent été évoquée, à cause d'une baisse des naissances à Ussel. En effet en 1964, un pic de naissance à 402 était atteint contre 192 en 2016[6]. Mais il est inconcevable pour l'agence régionale de santé de fermer la structure[7],[8]. En 2017, la maternité d’Ussel a enregistré six naissances de plus qu’en 2016, soit 202 accouchements[9].
-Formation
-Le CHHC dispose d’un institut de formation d'aides-soignants (IFAS) et d’un Institut de formation en soins infirmiers (IFSI).
+Pharmacie et stérilisation</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_Haute-Corrèze</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_Haute-Corr%C3%A8ze</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Activités médicales et enseignement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les différents services</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Maternité</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une fermeture de la maternité a souvent été évoquée, à cause d'une baisse des naissances à Ussel. En effet en 1964, un pic de naissance à 402 était atteint contre 192 en 2016. Mais il est inconcevable pour l'agence régionale de santé de fermer la structure,. En 2017, la maternité d’Ussel a enregistré six naissances de plus qu’en 2016, soit 202 accouchements.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_de_Haute-Corr%C3%A8ze</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_Haute-Corrèze</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_Haute-Corr%C3%A8ze</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Activités médicales et enseignement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CHHC dispose d’un institut de formation d'aides-soignants (IFAS) et d’un Institut de formation en soins infirmiers (IFSI).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_Haute-Corrèze</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_Haute-Corr%C3%A8ze</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'inauguration
-Le 25 janvier 1975, Simone Veil inaugure, en compagnie de Jacques Chirac, alors Premier ministre du gouvernement de Valéry Giscard d'Estaing, le centre hospitalier d'Ussel[10].
-Crise du Covid-19
-Lors de la pandémie du Covid-19, le centre hospitalier de Haute-Corrèze crée une unité d'hospitalisation pour les malades au sein du service de cardiologie, destiné à accueillir des patients Covid19 si les établissements référents de Brive et Tulle étaient en situation de saturation. L’établissement de première ligne est le CHU de Limoges, les établissements de 2e ligne identifiés en Corrèze sont le centre hospitalier de Brive, le centre hospitalier de Tulle, et le Centre médico chirurgical Les Cèdres à Brive. Les patients suspectés d’être porteurs du virus sont diagnostiqués par un prélèvement pharyngé pour effectuer une recherche par PCR au CHU de Limoges. Le prélèvement est réalisé par un détachement mobile du centre hospitalier de Tulle sur le site de l’hôpital d’Ussel. Un scanner peut également être indiqué. Les patients Covid positifs ayant une indication hospitalière doivent ensuite être transférés dans les établissements référents du département conformément aux recommandations de l’ARS Nouvelle-Aquitaine[11].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>L'inauguration</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 25 janvier 1975, Simone Veil inaugure, en compagnie de Jacques Chirac, alors Premier ministre du gouvernement de Valéry Giscard d'Estaing, le centre hospitalier d'Ussel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_Haute-Corrèze</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_Haute-Corr%C3%A8ze</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Crise du Covid-19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de la pandémie du Covid-19, le centre hospitalier de Haute-Corrèze crée une unité d'hospitalisation pour les malades au sein du service de cardiologie, destiné à accueillir des patients Covid19 si les établissements référents de Brive et Tulle étaient en situation de saturation. L’établissement de première ligne est le CHU de Limoges, les établissements de 2e ligne identifiés en Corrèze sont le centre hospitalier de Brive, le centre hospitalier de Tulle, et le Centre médico chirurgical Les Cèdres à Brive. Les patients suspectés d’être porteurs du virus sont diagnostiqués par un prélèvement pharyngé pour effectuer une recherche par PCR au CHU de Limoges. Le prélèvement est réalisé par un détachement mobile du centre hospitalier de Tulle sur le site de l’hôpital d’Ussel. Un scanner peut également être indiqué. Les patients Covid positifs ayant une indication hospitalière doivent ensuite être transférés dans les établissements référents du département conformément aux recommandations de l’ARS Nouvelle-Aquitaine.
 </t>
         </is>
       </c>
